--- a/Phase 2/Sprint4/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint4/BurnDown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7FC4A4-D644-4D9F-92FB-83D0F45DD958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2129448A-07D1-48F9-8F12-5636AEFAA579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Report a explicar as metricas</t>
+  </si>
+  <si>
+    <t>Testes unitarios</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -933,22 +936,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,19 +1022,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39999999999999991</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2203,7 +2206,7 @@
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2356,7 +2359,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
@@ -2372,11 +2377,19 @@
       <c r="S7" s="23"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
@@ -2544,7 +2557,7 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" ref="F16:I16" si="0">SUM(F6:F15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
@@ -2576,27 +2589,27 @@
       <c r="C17" s="47"/>
       <c r="D17" s="20">
         <f>SUM(D6:D16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="13">
         <f>D17-SUM(E6:E15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" ref="F17:H17" si="1">E17-SUM(F6:F15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="13">
         <f>F17-SUM(G6:G15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="36">
         <f>H17-SUM(I6:I15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
@@ -2616,23 +2629,23 @@
       <c r="C18" s="49"/>
       <c r="D18" s="37">
         <f>D17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="38">
         <f>$D$18-($D$18/5*1)</f>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="F18" s="38">
         <f>$D$18-($D$18/5*2)</f>
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="G18" s="38">
         <f>$D$18-($D$18/5*3)</f>
-        <v>0.79999999999999982</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="H18" s="38">
         <f>$D$18-($D$18/5*4)</f>
-        <v>0.39999999999999991</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I18" s="38">
         <f>$D$18-($D$18/5*5)</f>

--- a/Phase 2/Sprint4/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint4/BurnDown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2129448A-07D1-48F9-8F12-5636AEFAA579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C029B3B7-1AAC-496B-A154-637FB6642B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Testes unitarios</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
   </si>
 </sst>
 </file>
@@ -832,7 +835,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -936,13 +939,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1022,19 +1025,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2206,7 +2209,7 @@
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2263,19 +2266,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="28">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="F4" s="28">
-        <v>44887</v>
+        <v>44894</v>
       </c>
       <c r="G4" s="28">
-        <v>44888</v>
+        <v>44895</v>
       </c>
       <c r="H4" s="28">
-        <v>44889</v>
+        <v>44896</v>
       </c>
       <c r="I4" s="29">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -2362,7 +2365,9 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
       <c r="J7" s="23"/>
@@ -2405,12 +2410,20 @@
       <c r="S8" s="23"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="23"/>
@@ -2561,7 +2574,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
@@ -2589,15 +2602,15 @@
       <c r="C17" s="47"/>
       <c r="D17" s="20">
         <f>SUM(D6:D16)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="13">
         <f>D17-SUM(E6:E15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" ref="F17:H17" si="1">E17-SUM(F6:F15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="13">
         <f>F17-SUM(G6:G15)</f>
@@ -2629,23 +2642,23 @@
       <c r="C18" s="49"/>
       <c r="D18" s="37">
         <f>D17</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="38">
         <f>$D$18-($D$18/5*1)</f>
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="F18" s="38">
         <f>$D$18-($D$18/5*2)</f>
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="G18" s="38">
         <f>$D$18-($D$18/5*3)</f>
-        <v>1.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="H18" s="38">
         <f>$D$18-($D$18/5*4)</f>
-        <v>0.60000000000000009</v>
+        <v>1</v>
       </c>
       <c r="I18" s="38">
         <f>$D$18-($D$18/5*5)</f>
